--- a/Base/Backlog_19.xlsx
+++ b/Base/Backlog_19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB223E7-3736-446D-8F60-6FA8C9DF0151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A963E5D-DAEA-415D-A82C-D23BC1E530EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="ITI" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="26">
   <si>
     <t>Backlog</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Erick da Silva</t>
+  </si>
+  <si>
+    <t>Resolvido</t>
   </si>
 </sst>
 </file>
@@ -571,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -656,7 +659,7 @@
         <v>45789</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>11</v>
@@ -691,7 +694,7 @@
         <v>45789</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>11</v>
@@ -761,7 +764,7 @@
         <v>45789</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>11</v>
@@ -831,7 +834,7 @@
         <v>45789</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>11</v>
@@ -936,7 +939,7 @@
         <v>45789</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>11</v>
@@ -971,7 +974,7 @@
         <v>45789</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>11</v>
@@ -1006,7 +1009,7 @@
         <v>45789</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>11</v>
@@ -1111,7 +1114,7 @@
         <v>45789</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>11</v>
@@ -1539,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C20" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1623,7 +1626,7 @@
         <v>45782</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>15</v>
@@ -1658,7 +1661,7 @@
         <v>45782</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>15</v>

--- a/Base/Backlog_19.xlsx
+++ b/Base/Backlog_19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A963E5D-DAEA-415D-A82C-D23BC1E530EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0565033-7E4A-4598-BACE-35395CB1D970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
@@ -572,10 +572,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection sqref="A1:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -630,7 +631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
@@ -665,7 +666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -700,7 +701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
@@ -735,7 +736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
@@ -805,7 +806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -840,7 +841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
@@ -910,7 +911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
@@ -945,7 +946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>4</v>
       </c>
@@ -980,7 +981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>4</v>
       </c>
@@ -1015,7 +1016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
@@ -1050,7 +1051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>4</v>
       </c>
@@ -1085,7 +1086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>4</v>
       </c>
@@ -1120,7 +1121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>4</v>
       </c>
@@ -1155,7 +1156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>4</v>
       </c>
@@ -1190,19 +1191,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="14"/>
@@ -1210,7 +1211,7 @@
       <c r="I21" s="8"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="14"/>
@@ -1218,7 +1219,7 @@
       <c r="I22" s="8"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="14"/>
@@ -1226,7 +1227,7 @@
       <c r="I23" s="8"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="14"/>
@@ -1234,7 +1235,7 @@
       <c r="I24" s="8"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="15"/>
@@ -1242,7 +1243,7 @@
       <c r="I25" s="8"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="15"/>
@@ -1250,7 +1251,7 @@
       <c r="I26" s="8"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="15"/>
@@ -1258,7 +1259,7 @@
       <c r="I27" s="8"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="15"/>
@@ -1266,7 +1267,7 @@
       <c r="I28" s="8"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -1280,105 +1281,105 @@
       <c r="K29" s="16"/>
       <c r="L29" s="13"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="H30" s="2"/>
       <c r="I30" s="8"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="H31" s="2"/>
       <c r="I31" s="8"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="H32" s="2"/>
       <c r="I32" s="8"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="H33" s="2"/>
       <c r="I33" s="8"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="H34" s="2"/>
       <c r="I34" s="8"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="H35" s="2"/>
       <c r="I35" s="8"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="H36" s="2"/>
       <c r="I36" s="8"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="H37" s="2"/>
       <c r="I37" s="8"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="H38" s="2"/>
       <c r="I38" s="8"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="H39" s="2"/>
       <c r="I39" s="8"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="H40" s="2"/>
       <c r="I40" s="8"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="H41" s="2"/>
       <c r="I41" s="8"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="H42" s="2"/>
       <c r="I42" s="8"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="H43" s="2"/>
       <c r="I43" s="8"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="H44" s="2"/>
@@ -1528,6 +1529,16 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J44" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
+    <filterColumn colId="7">
+      <filters>
+        <dateGroupItem year="2025" month="4" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters>
+        <filter val="Pendente"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J44">
       <sortCondition ref="B1:B44"/>
     </sortState>

--- a/Base/Backlog_19.xlsx
+++ b/Base/Backlog_19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0565033-7E4A-4598-BACE-35395CB1D970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35579FB3-55DA-4651-83CF-999435F7391E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="ITI" sheetId="2" r:id="rId1"/>
@@ -572,11 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:K9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -631,7 +630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
@@ -666,7 +665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -701,7 +700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
@@ -736,7 +735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
@@ -806,7 +805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -841,7 +840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
@@ -911,7 +910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
@@ -946,7 +945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>4</v>
       </c>
@@ -981,7 +980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>4</v>
       </c>
@@ -1016,7 +1015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
@@ -1051,7 +1050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>4</v>
       </c>
@@ -1086,7 +1085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>4</v>
       </c>
@@ -1121,7 +1120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>4</v>
       </c>
@@ -1156,7 +1155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>4</v>
       </c>
@@ -1191,19 +1190,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="14"/>
@@ -1211,7 +1210,7 @@
       <c r="I21" s="8"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="14"/>
@@ -1219,7 +1218,7 @@
       <c r="I22" s="8"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="14"/>
@@ -1227,7 +1226,7 @@
       <c r="I23" s="8"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="14"/>
@@ -1235,7 +1234,7 @@
       <c r="I24" s="8"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="15"/>
@@ -1243,7 +1242,7 @@
       <c r="I25" s="8"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="15"/>
@@ -1251,7 +1250,7 @@
       <c r="I26" s="8"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="15"/>
@@ -1259,7 +1258,7 @@
       <c r="I27" s="8"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="15"/>
@@ -1267,7 +1266,7 @@
       <c r="I28" s="8"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -1281,105 +1280,105 @@
       <c r="K29" s="16"/>
       <c r="L29" s="13"/>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="H30" s="2"/>
       <c r="I30" s="8"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="H31" s="2"/>
       <c r="I31" s="8"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="H32" s="2"/>
       <c r="I32" s="8"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="H33" s="2"/>
       <c r="I33" s="8"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="H34" s="2"/>
       <c r="I34" s="8"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="H35" s="2"/>
       <c r="I35" s="8"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="H36" s="2"/>
       <c r="I36" s="8"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="H37" s="2"/>
       <c r="I37" s="8"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="H38" s="2"/>
       <c r="I38" s="8"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="H39" s="2"/>
       <c r="I39" s="8"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="H40" s="2"/>
       <c r="I40" s="8"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="H41" s="2"/>
       <c r="I41" s="8"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="H42" s="2"/>
       <c r="I42" s="8"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="H43" s="2"/>
       <c r="I43" s="8"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="H44" s="2"/>
@@ -1529,16 +1528,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J44" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
-    <filterColumn colId="7">
-      <filters>
-        <dateGroupItem year="2025" month="4" dateTimeGrouping="month"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="9">
-      <filters>
-        <filter val="Pendente"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J44">
       <sortCondition ref="B1:B44"/>
     </sortState>
@@ -1553,7 +1542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C20" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
